--- a/Result-Summary/RQ3.xlsx
+++ b/Result-Summary/RQ3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishno Dey\Documents\Linguistic\Result-Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0B1BD-1940-466E-80D1-24FA72ACAECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0A2059-EE84-4397-87A9-9FAC5E799567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2940" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>api_name</t>
   </si>
@@ -196,6 +197,36 @@
   </si>
   <si>
     <t>total anti</t>
+  </si>
+  <si>
+    <t>Amorphous URI</t>
+  </si>
+  <si>
+    <t>Non-standard URI</t>
+  </si>
+  <si>
+    <t>CRUDy URI</t>
+  </si>
+  <si>
+    <t>Unversioned URI</t>
+  </si>
+  <si>
+    <t>Pluralised Nodes</t>
+  </si>
+  <si>
+    <t>Non-descriptive URI</t>
+  </si>
+  <si>
+    <t>Contextless Resource</t>
+  </si>
+  <si>
+    <t>Non-hierarchical Nodes</t>
+  </si>
+  <si>
+    <t>Less-cohesive Doc</t>
+  </si>
+  <si>
+    <t>Inconsistent Doc</t>
   </si>
 </sst>
 </file>
@@ -231,8 +262,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,34 +391,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>AmorphousURI</c:v>
+                  <c:v>Amorphous URI</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>NonStandardURI</c:v>
+                  <c:v>Non-standard URI</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CRUDyURI</c:v>
+                  <c:v>CRUDy URI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>UnversionedURI</c:v>
+                  <c:v>Unversioned URI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>PluralisedNodes</c:v>
+                  <c:v>Pluralised Nodes</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NonDescriptiveURI</c:v>
+                  <c:v>Non-descriptive URI</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ContextlessResource</c:v>
+                  <c:v>Contextless Resource</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NonHierarchicalNodes</c:v>
+                  <c:v>Non-hierarchical Nodes</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>LessCohisiveDoc</c:v>
+                  <c:v>Less-cohesive Doc</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>InconsistantDoc</c:v>
+                  <c:v>Inconsistent Doc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -395,37 +427,37 @@
             <c:numRef>
               <c:f>Sheet1!$B$47:$B$56</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.77</c:v>
+                  <c:v>0.72769953051643188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.66</c:v>
+                  <c:v>0.92660550458715596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.65</c:v>
+                  <c:v>0.13653136531365315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>0.58002936857562404</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.78</c:v>
+                  <c:v>0.24778761061946902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.14</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.75</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.09</c:v>
+                  <c:v>0.67088607594936711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.05</c:v>
+                  <c:v>0.30046948356807512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,34 +556,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>AmorphousURI</c:v>
+                  <c:v>Amorphous URI</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>NonStandardURI</c:v>
+                  <c:v>Non-standard URI</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CRUDyURI</c:v>
+                  <c:v>CRUDy URI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>UnversionedURI</c:v>
+                  <c:v>Unversioned URI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>PluralisedNodes</c:v>
+                  <c:v>Pluralised Nodes</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NonDescriptiveURI</c:v>
+                  <c:v>Non-descriptive URI</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ContextlessResource</c:v>
+                  <c:v>Contextless Resource</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NonHierarchicalNodes</c:v>
+                  <c:v>Non-hierarchical Nodes</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>LessCohisiveDoc</c:v>
+                  <c:v>Less-cohesive Doc</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>InconsistantDoc</c:v>
+                  <c:v>Inconsistent Doc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -560,37 +592,37 @@
             <c:numRef>
               <c:f>Sheet1!$C$47:$C$56</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>27.23</c:v>
+                  <c:v>0.27230046948356806</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.34</c:v>
+                  <c:v>7.3394495412844041E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.35</c:v>
+                  <c:v>0.86346863468634683</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>0.41997063142437591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.22</c:v>
+                  <c:v>0.75221238938053092</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.86</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.25</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.909999999999997</c:v>
+                  <c:v>0.32911392405063289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.95</c:v>
+                  <c:v>0.69953051643192488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,7 +706,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -785,6 +817,538 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="76000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$2:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Unversioned URI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pluralised Nodes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Non-standard URI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Non-hierarchical Nodes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Non-descriptive URI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Less-cohesive Doc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Inconsistent Doc</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CRUDy URI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Contextless Resource</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Amorphous URI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.58002936857562404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24778761061946902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92660550458715596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67088607594936711</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30046948356807512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13653136531365315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72769953051643188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D366-4DCA-A2A2-7E16CF0FAE81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraphQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="77000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$2:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Unversioned URI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pluralised Nodes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Non-standard URI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Non-hierarchical Nodes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Non-descriptive URI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Less-cohesive Doc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Inconsistent Doc</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CRUDy URI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Contextless Resource</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Amorphous URI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.41997063142437591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75221238938053092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3394495412844041E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32911392405063289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69953051643192488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86346863468634683</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27230046948356806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D366-4DCA-A2A2-7E16CF0FAE81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="371289776"/>
+        <c:axId val="371288336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="371289776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371288336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="371288336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371289776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -825,6 +1389,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -1326,6 +1896,557 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="46000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1351,6 +2472,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C26EA7-1C4F-4DDD-0CC9-C258D3FBF204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E1C2FA-9273-7A77-2A9C-29F8D305EA6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4222,15 +5384,15 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <f>ROUND(B40/B45*100,2)</f>
-        <v>72.77</v>
-      </c>
-      <c r="C47">
-        <f>ROUND(B14/B45*100,2)</f>
-        <v>27.23</v>
+        <v>57</v>
+      </c>
+      <c r="B47" s="1">
+        <f>B40/B45</f>
+        <v>0.72769953051643188</v>
+      </c>
+      <c r="C47" s="1">
+        <f>B14/B45</f>
+        <v>0.27230046948356806</v>
       </c>
       <c r="D47">
         <f>B45</f>
@@ -4239,15 +5401,15 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48">
-        <f>ROUND(D40/D45*100,2)</f>
-        <v>92.66</v>
-      </c>
-      <c r="C48">
-        <f>ROUND(D14/D45*100,2)</f>
-        <v>7.34</v>
+        <v>58</v>
+      </c>
+      <c r="B48" s="1">
+        <f>D40/D45</f>
+        <v>0.92660550458715596</v>
+      </c>
+      <c r="C48" s="1">
+        <f>D14/D45</f>
+        <v>7.3394495412844041E-2</v>
       </c>
       <c r="D48">
         <f>D45</f>
@@ -4256,15 +5418,15 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <f>ROUND(F40/F45*100,2 )</f>
-        <v>13.65</v>
-      </c>
-      <c r="C49">
-        <f>ROUND(F14/F45*100,2)</f>
-        <v>86.35</v>
+        <v>59</v>
+      </c>
+      <c r="B49" s="1">
+        <f>F40/F45</f>
+        <v>0.13653136531365315</v>
+      </c>
+      <c r="C49" s="1">
+        <f>F14/F45</f>
+        <v>0.86346863468634683</v>
       </c>
       <c r="D49">
         <f>F45</f>
@@ -4273,15 +5435,15 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50">
-        <f>ROUND(H40/H45*100,2)</f>
-        <v>58</v>
-      </c>
-      <c r="C50">
-        <f>ROUND(H14/H45*100,2)</f>
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="B50" s="1">
+        <f>H40/H45</f>
+        <v>0.58002936857562404</v>
+      </c>
+      <c r="C50" s="1">
+        <f>H14/H45</f>
+        <v>0.41997063142437591</v>
       </c>
       <c r="D50">
         <f>H45</f>
@@ -4290,15 +5452,15 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51">
-        <f>ROUND(J40/J45*100,2)</f>
-        <v>24.78</v>
-      </c>
-      <c r="C51">
-        <f>ROUND(J14/J45*100,2)</f>
-        <v>75.22</v>
+        <v>61</v>
+      </c>
+      <c r="B51" s="1">
+        <f>J40/J45</f>
+        <v>0.24778761061946902</v>
+      </c>
+      <c r="C51" s="1">
+        <f>J14/J45</f>
+        <v>0.75221238938053092</v>
       </c>
       <c r="D51">
         <f>J45</f>
@@ -4307,15 +5469,15 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52">
-        <f>ROUND(L40/L45*100,2)</f>
-        <v>57.14</v>
-      </c>
-      <c r="C52">
-        <f>ROUND(L14/L45*100,2)</f>
-        <v>42.86</v>
+        <v>62</v>
+      </c>
+      <c r="B52" s="1">
+        <f>L40/L45</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C52" s="1">
+        <f>L14/L45</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D52">
         <f>L45</f>
@@ -4324,15 +5486,15 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53">
-        <f>ROUND(N40/N45*100,2)</f>
-        <v>18.75</v>
-      </c>
-      <c r="C53">
-        <f>ROUND(N14/N45*100,2)</f>
-        <v>81.25</v>
+        <v>63</v>
+      </c>
+      <c r="B53" s="1">
+        <f>N40/N45</f>
+        <v>0.1875</v>
+      </c>
+      <c r="C53" s="1">
+        <f>N14/N45</f>
+        <v>0.8125</v>
       </c>
       <c r="D53">
         <f>N45</f>
@@ -4341,15 +5503,15 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54">
-        <f>ROUND(P40/P45*100,2)</f>
-        <v>67.09</v>
-      </c>
-      <c r="C54">
-        <f>ROUND(P14/P45*100,2)</f>
-        <v>32.909999999999997</v>
+        <v>64</v>
+      </c>
+      <c r="B54" s="1">
+        <f>P40/P45</f>
+        <v>0.67088607594936711</v>
+      </c>
+      <c r="C54" s="1">
+        <f>P14/P45</f>
+        <v>0.32911392405063289</v>
       </c>
       <c r="D54">
         <f>P45</f>
@@ -4358,15 +5520,15 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55">
-        <f>ROUND(R40/R45*100,2)</f>
-        <v>75</v>
-      </c>
-      <c r="C55">
-        <f>ROUND(R14/R45*100,2)</f>
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="B55" s="1">
+        <f>R40/R45</f>
+        <v>0.75</v>
+      </c>
+      <c r="C55" s="1">
+        <f>R14/R45</f>
+        <v>0.25</v>
       </c>
       <c r="D55">
         <f>R45</f>
@@ -4375,15 +5537,15 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56">
-        <f>ROUND(T40/T45*100,2)</f>
-        <v>30.05</v>
-      </c>
-      <c r="C56">
-        <f>ROUND(T14/T45*100,2)</f>
-        <v>69.95</v>
+        <v>66</v>
+      </c>
+      <c r="B56" s="1">
+        <f>T40/T45</f>
+        <v>0.30046948356807512</v>
+      </c>
+      <c r="C56" s="1">
+        <f>T14/T45</f>
+        <v>0.69953051643192488</v>
       </c>
       <c r="D56">
         <v>213</v>
@@ -4399,4 +5561,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F579C-0194-4588-8A5D-DB76AF02B73E}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>72.77</v>
+      </c>
+      <c r="C2">
+        <v>27.23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.58002936857562404</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.41997063142437591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>92.66</v>
+      </c>
+      <c r="C3">
+        <v>7.34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.24778761061946902</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.75221238938053092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>13.65</v>
+      </c>
+      <c r="C4">
+        <v>86.35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.92660550458715596</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.3394495412844041E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.67088607594936711</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.32911392405063289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>24.78</v>
+      </c>
+      <c r="C6">
+        <v>75.22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>57.14</v>
+      </c>
+      <c r="C7">
+        <v>42.86</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>18.75</v>
+      </c>
+      <c r="C8">
+        <v>81.25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.30046948356807512</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.69953051643192488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>67.09</v>
+      </c>
+      <c r="C9">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.13653136531365315</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.86346863468634683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>30.05</v>
+      </c>
+      <c r="C11">
+        <v>69.95</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.72769953051643188</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.27230046948356806</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:G11">
+    <sortCondition descending="1" ref="E2:E11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Result-Summary/RQ3.xlsx
+++ b/Result-Summary/RQ3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishno Dey\Documents\Linguistic\Result-Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8849DA7-C4D3-4960-BF8F-65D81F3FF5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE82E03-6481-40B9-853C-7CB4115282D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="100">
   <si>
     <t>api_name</t>
   </si>
@@ -252,10 +253,82 @@
     <t>cont</t>
   </si>
   <si>
-    <t>Non-pertinent Doc</t>
+    <t>Pluralized Nodes</t>
   </si>
   <si>
-    <t>Pluralized Nodes</t>
+    <t>Linguistic antipatterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TN </t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amorphous URI </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> −0.03</t>
+  </si>
+  <si>
+    <t>Contextless Resource Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pluralised Nodes </t>
+  </si>
+  <si>
+    <t>Non-Pertinent Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unversioned URIs </t>
+  </si>
+  <si>
+    <t>Inconsistent Documentation</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>Unversioned Endpoint</t>
+  </si>
+  <si>
+    <t>Non-standard Endpoint</t>
+  </si>
+  <si>
+    <t>Non-descriptive Endpoint</t>
+  </si>
+  <si>
+    <t>CRUDy Endpoint</t>
+  </si>
+  <si>
+    <t>Amorphous Endpoint</t>
+  </si>
+  <si>
+    <t>Non-pertinent Documentation</t>
   </si>
 </sst>
 </file>
@@ -294,11 +367,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -380,12 +452,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -428,34 +497,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Unversioned URI</c:v>
+                  <c:v>Unversioned Endpoint</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Pluralized Nodes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Non-standard URI</c:v>
+                  <c:v>Non-standard Endpoint</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Non-hierarchical Nodes</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Non-descriptive URI</c:v>
+                  <c:v>Non-descriptive Endpoint</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Non-pertinent Doc</c:v>
+                  <c:v>Non-pertinent Documentation</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Inconsistent Doc</c:v>
+                  <c:v>Inconsistent Documentation</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>CRUDy URI</c:v>
+                  <c:v>CRUDy Endpoint</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Contextless Resource</c:v>
+                  <c:v>Contextless Resource Names</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Amorphous URI</c:v>
+                  <c:v>Amorphous Endpoint</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -547,12 +616,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -595,34 +661,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Unversioned URI</c:v>
+                  <c:v>Unversioned Endpoint</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Pluralized Nodes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Non-standard URI</c:v>
+                  <c:v>Non-standard Endpoint</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Non-hierarchical Nodes</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Non-descriptive URI</c:v>
+                  <c:v>Non-descriptive Endpoint</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Non-pertinent Doc</c:v>
+                  <c:v>Non-pertinent Documentation</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Inconsistent Doc</c:v>
+                  <c:v>Inconsistent Documentation</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>CRUDy URI</c:v>
+                  <c:v>CRUDy Endpoint</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Contextless Resource</c:v>
+                  <c:v>Contextless Resource Names</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Amorphous URI</c:v>
+                  <c:v>Amorphous Endpoint</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -717,9 +783,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -742,36 +808,12 @@
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="371289776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2674,7 +2716,7 @@
         <v>116</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:W14" si="2">SUM(C2:C13)</f>
+        <f t="shared" ref="C14:U14" si="2">SUM(C2:C13)</f>
         <v>731</v>
       </c>
       <c r="D14">
@@ -4717,7 +4759,7 @@
         <v>7.9110012360939425E-2</v>
       </c>
       <c r="U42" s="2">
-        <f t="shared" ref="U42:V42" si="33">U41/(T41+U41)</f>
+        <f t="shared" ref="U42" si="33">U41/(T41+U41)</f>
         <v>0.9208899876390606</v>
       </c>
       <c r="V42" s="2">
@@ -4739,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="C43:S43" si="34">D42+E42</f>
+        <f t="shared" ref="D43:R43" si="34">D42+E42</f>
         <v>1</v>
       </c>
       <c r="F43">
@@ -5116,8 +5158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F579C-0194-4588-8A5D-DB76AF02B73E}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5154,7 +5196,7 @@
         <v>27.23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1">
         <v>0.58002936857562404</v>
@@ -5174,7 +5216,7 @@
         <v>7.34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1">
         <v>0.24778761061946902</v>
@@ -5194,7 +5236,7 @@
         <v>86.35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1">
         <v>0.92660550458715596</v>
@@ -5234,7 +5276,7 @@
         <v>75.22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1">
         <v>0.5714285714285714</v>
@@ -5254,7 +5296,7 @@
         <v>42.86</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F7" s="1">
         <v>0.75</v>
@@ -5274,7 +5316,7 @@
         <v>81.25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F8" s="1">
         <v>0.30046948356807512</v>
@@ -5294,7 +5336,7 @@
         <v>32.909999999999997</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1">
         <v>0.13653136531365315</v>
@@ -5314,7 +5356,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F10" s="1">
         <v>0.1875</v>
@@ -5334,7 +5376,7 @@
         <v>69.95</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1">
         <v>0.72769953051643188</v>
@@ -5363,7 +5405,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -5376,7 +5418,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
@@ -5474,7 +5516,7 @@
       <c r="C2">
         <v>27</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <f>B2/(B2+C2)</f>
         <v>0</v>
       </c>
@@ -5587,7 +5629,7 @@
       <c r="C3">
         <v>99</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D38" si="0">B3/(B3+C3)</f>
         <v>0</v>
       </c>
@@ -5618,7 +5660,7 @@
         <v>99</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M41" si="3">K3/(K3+L3)</f>
+        <f t="shared" ref="M3:M39" si="3">K3/(K3+L3)</f>
         <v>0</v>
       </c>
       <c r="N3">
@@ -5692,7 +5734,7 @@
       <c r="C4">
         <v>16</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>0.23809523809523808</v>
       </c>
@@ -5797,7 +5839,7 @@
       <c r="C5">
         <v>92</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5902,7 +5944,7 @@
       <c r="C6">
         <v>34</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>0.48484848484848486</v>
       </c>
@@ -6007,7 +6049,7 @@
       <c r="C7">
         <v>237</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>7.421875E-2</v>
       </c>
@@ -6112,7 +6154,7 @@
       <c r="C8">
         <v>54</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>1.8181818181818181E-2</v>
       </c>
@@ -6217,7 +6259,7 @@
       <c r="C9">
         <v>19</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0.32142857142857145</v>
       </c>
@@ -6322,7 +6364,7 @@
       <c r="C10">
         <v>85</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>6.5934065934065936E-2</v>
       </c>
@@ -6427,7 +6469,7 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -6532,7 +6574,7 @@
       <c r="C12">
         <v>31</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>6.0606060606060608E-2</v>
       </c>
@@ -6637,7 +6679,7 @@
       <c r="C13">
         <v>37</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>0.27450980392156865</v>
       </c>
@@ -6741,7 +6783,7 @@
         <f t="shared" ref="C14:AF14" si="10">SUM(C2:C13)</f>
         <v>731</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>0.13695395513577333</v>
       </c>
@@ -6870,7 +6912,7 @@
         <f>C14/(B14+C14)</f>
         <v>0.86304604486422665</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>0.13695395513577333</v>
       </c>
@@ -6989,7 +7031,7 @@
         <f>SUM(B15+C15)</f>
         <v>1</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7113,7 +7155,7 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F18" t="s">
@@ -7213,7 +7255,7 @@
       <c r="C19">
         <v>49</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>0.24615384615384617</v>
       </c>
@@ -7318,7 +7360,7 @@
       <c r="C20">
         <v>32</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7423,7 +7465,7 @@
       <c r="C21">
         <v>32</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -7528,7 +7570,7 @@
       <c r="C22">
         <v>25</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7633,7 +7675,7 @@
       <c r="C23">
         <v>45</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7738,7 +7780,7 @@
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>0.90625</v>
       </c>
@@ -7843,7 +7885,7 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7948,7 +7990,7 @@
       <c r="C26">
         <v>56</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8053,7 +8095,7 @@
       <c r="C27">
         <v>12</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>0.6470588235294118</v>
       </c>
@@ -8158,7 +8200,7 @@
       <c r="C28">
         <v>57</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8263,7 +8305,7 @@
       <c r="C29">
         <v>15</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>0.21052631578947367</v>
       </c>
@@ -8368,7 +8410,7 @@
       <c r="C30">
         <v>11</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
@@ -8473,7 +8515,7 @@
       <c r="C31">
         <v>32</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
@@ -8578,7 +8620,7 @@
       <c r="C32">
         <v>15</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8683,7 +8725,7 @@
       <c r="C33">
         <v>43</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8788,7 +8830,7 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8893,7 +8935,7 @@
       <c r="C35">
         <v>24</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
@@ -8998,7 +9040,7 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -9103,7 +9145,7 @@
       <c r="C37">
         <v>23</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
@@ -9208,7 +9250,7 @@
       <c r="C38">
         <v>14</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9313,7 +9355,7 @@
       <c r="C39">
         <v>11</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <f>B39/(B39+C39)</f>
         <v>0.79629629629629628</v>
       </c>
@@ -9449,7 +9491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8193B62B-ACAC-4C48-A747-59BCEC3DA11C}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -9503,34 +9545,34 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>0.96296296296296291</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>0.62962962962962965</v>
       </c>
       <c r="L2">
@@ -9552,38 +9594,38 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>1.0101010101010102E-2</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>1.0101010101010102E-2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L38" si="0">SUM(B3:K3)/(N3*O3)</f>
+        <f t="shared" ref="L3:L37" si="0">SUM(B3:K3)/(N3*O3)</f>
         <v>1.020304050607081E-4</v>
       </c>
       <c r="M3">
@@ -9601,34 +9643,34 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>0.23809523809523808</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
@@ -9650,34 +9692,34 @@
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0.25</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>0.86458333333333337</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>3.125E-2</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>0.41666666666666669</v>
       </c>
       <c r="L5">
@@ -9699,34 +9741,34 @@
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>0.48484848484848486</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>0.21212121212121213</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>0.10606060606060606</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>7.575757575757576E-2</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0.12121212121212122</v>
       </c>
       <c r="L6">
@@ -9748,34 +9790,34 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>7.421875E-2</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.49609375</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>0.84375</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>5.078125E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>0.109375</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>8.203125E-2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>7.8125E-3</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>0.20703125</v>
       </c>
       <c r="L7">
@@ -9797,34 +9839,34 @@
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>0.10909090909090909</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
@@ -9846,34 +9888,34 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>0.32142857142857145</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>0.17857142857142858</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.9285714285714286</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="L9">
@@ -9895,34 +9937,34 @@
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>6.5934065934065936E-2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.61538461538461542</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0.69230769230769229</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>1.098901098901099E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>0.13186813186813187</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0.21978021978021978</v>
       </c>
       <c r="L10">
@@ -9944,34 +9986,34 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>0.125</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11">
         <v>0.16666666666666666</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
@@ -9993,34 +10035,34 @@
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>6.0606060606060608E-2</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0.15151515151515152</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>0.72727272727272729</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>0.18181818181818182</v>
       </c>
       <c r="L12">
@@ -10042,34 +10084,34 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>0.27450980392156865</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0.13725490196078433</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>7.8431372549019607E-2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>7.8431372549019607E-2</v>
       </c>
       <c r="L13">
@@ -10142,34 +10184,34 @@
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>0.24615384615384617</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>6.1538461538461542E-2</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.15384615384615385</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>3.0769230769230771E-2</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>0.12307692307692308</v>
       </c>
       <c r="L17">
@@ -10191,34 +10233,34 @@
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>3.125E-2</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>0.125</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
@@ -10240,34 +10282,34 @@
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>0.2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>0.1</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>0.2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <v>0.1</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
         <v>0.47499999999999998</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19">
         <v>0.05</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="L19">
@@ -10289,34 +10331,34 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
@@ -10338,34 +10380,34 @@
       <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>0.8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>0.4</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>0.15555555555555556</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21">
         <v>0.15555555555555556</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="L21">
@@ -10387,34 +10429,34 @@
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>0.90625</v>
       </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>0.53125</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>0.875</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>0.96875</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>6.25E-2</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>0.625</v>
       </c>
       <c r="L22">
@@ -10436,34 +10478,34 @@
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>0.8571428571428571</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
@@ -10485,34 +10527,34 @@
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>8.9285714285714288E-2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24">
         <v>5.3571428571428568E-2</v>
       </c>
       <c r="L24">
@@ -10534,34 +10576,34 @@
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>0.6470588235294118</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>0.41176470588235292</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>0.11764705882352941</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25">
         <v>0.35294117647058826</v>
       </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25">
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25">
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="L25">
@@ -10583,34 +10625,34 @@
       <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>0.19298245614035087</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
         <v>0.10526315789473684</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
         <v>3.5087719298245612E-2</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26">
         <v>0.21052631578947367</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26">
         <v>1.7543859649122806E-2</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26">
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="L26">
@@ -10632,34 +10674,34 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>0.21052631578947367</v>
       </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>0.15789473684210525</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>0.10526315789473684</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
@@ -10681,34 +10723,34 @@
       <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>0.15384615384615385</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>0.15384615384615385</v>
       </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>0.15384615384615385</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28">
         <v>0.15384615384615385</v>
       </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>0.15384615384615385</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
@@ -10730,34 +10772,34 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>0.11764705882352941</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29">
         <v>0.11764705882352941</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="L29">
@@ -10779,34 +10821,34 @@
       <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>0.2</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
@@ -10828,34 +10870,34 @@
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>0.86046511627906974</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>9.3023255813953487E-2</v>
       </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>6.9767441860465115E-2</v>
       </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="L31">
@@ -10877,34 +10919,34 @@
       <c r="A32" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>0.5714285714285714</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32">
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32">
         <v>0.33333333333333331</v>
       </c>
       <c r="L32">
@@ -10926,34 +10968,34 @@
       <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>0.7</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>0.75</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>0.125</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>0.05</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="L33">
@@ -10975,34 +11017,34 @@
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>9.8591549295774641E-2</v>
       </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34">
         <v>0.11267605633802817</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34">
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34">
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="L34">
@@ -11024,34 +11066,34 @@
       <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>0.20833333333333334</v>
       </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>0.125</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="L35">
@@ -11073,34 +11115,34 @@
       <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="3">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>0.14285714285714285</v>
       </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>0.14285714285714285</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36">
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="L36">
@@ -11122,34 +11164,34 @@
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>0.79629629629629628</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>0.12962962962962962</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37">
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="L37">
@@ -11165,6 +11207,508 @@
       </c>
       <c r="O37">
         <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731A4518-1A58-4D76-83A2-FBAE28487495}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <f>(D2+G2)/91</f>
+        <v>0.67032967032967028</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="J2" s="2">
+        <f>D2/(D2+E2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="K2" s="2">
+        <f>D2/(D2+F2)</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <f>(2*I2*J2)/(I2+J2)</f>
+        <v>0.3641304347826087</v>
+      </c>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>65</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="0">(D3+G3)/91</f>
+        <v>0.78021978021978022</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="J3" s="2">
+        <f>D3/(D3+E3)</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K10" si="1">D3/(D3+F3)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L10" si="2">(2*I3*J3)/(I3+J3)</f>
+        <v>0.64197530864197527</v>
+      </c>
+      <c r="M3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>85</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="J4" s="2">
+        <f>D4/(D4+E4)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98477157360406087</v>
+      </c>
+      <c r="M4">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>77</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>55</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.87912087912087911</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="J6" s="2">
+        <f>D6/(D6+E6)</f>
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.84162203519510315</v>
+      </c>
+      <c r="M6">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.40659340659340659</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="J7" s="2">
+        <f>D7/(D7+E7)</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20641913152926369</v>
+      </c>
+      <c r="M7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <f>D8/(D8+E8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>57</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.8351648351648352</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="J9" s="2">
+        <f>D9/(D9+E9)</f>
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.70370370370370372</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.78158667972575901</v>
+      </c>
+      <c r="M9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>79</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.89010989010989006</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="J10" s="2">
+        <f>D10/(D10+E10)</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.94179894179894175</v>
+      </c>
+      <c r="M10">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B2:B10)</f>
+        <v>202</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:M11" si="3">SUM(C2:C10)</f>
+        <v>617</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>531</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H2:H10)/9</f>
+        <v>0.80830280830280821</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I2:I10)/9</f>
+        <v>0.81</v>
+      </c>
+      <c r="J11">
+        <f>SUM(J2:J10)/9</f>
+        <v>0.6078451581788622</v>
+      </c>
+      <c r="K11">
+        <f>SUM(K2:K10)/9</f>
+        <v>0.46575543797766028</v>
+      </c>
+      <c r="L11" s="2">
+        <f>SUM(L2:L10)/9</f>
+        <v>0.64025601169752355</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>3.6999999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Result-Summary/RQ3.xlsx
+++ b/Result-Summary/RQ3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishno Dey\Documents\Linguistic\Result-Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE82E03-6481-40B9-853C-7CB4115282D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65BAE5C-5134-4C69-ABEB-B6D5EDDE919B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="100">
   <si>
     <t>api_name</t>
   </si>
@@ -891,9 +891,510 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$38:$E$47</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Amorphous URI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Non-standard URI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CRUDy URI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Unversioned URI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pluralised Nodes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Non-descriptive URI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Contextless Resource</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Non-hierarchical Nodes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Less-cohesive Doc</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Inconsistent Doc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$38:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.38318912237330038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12484548825710753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.573547589616811E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97651421508034608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17305315203955501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4388133498145856E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1124845488257108E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13102595797280595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7082818294190356E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9110012360939425E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1289-42A3-8068-4B8B586DBF7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraphQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$38:$E$47</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Amorphous URI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Non-standard URI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CRUDy URI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Unversioned URI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pluralised Nodes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Non-descriptive URI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Contextless Resource</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Non-hierarchical Nodes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Less-cohesive Doc</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Inconsistent Doc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$38:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13711583924349882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4562647754137114E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27659574468085107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67612293144208035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50236406619385343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9007092198581561E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6099290780141841E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1465721040189124E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1820330969267139E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17612293144208038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1289-42A3-8068-4B8B586DBF7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="536717808"/>
+        <c:axId val="536718528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="536717808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536718528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="536718528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536717808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1448,6 +1949,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1481,6 +2487,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3526D23-4390-4F02-1EDE-00634915399B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1754,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4963,7 +6005,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -4974,176 +6016,184 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="1">
-        <f>B41/B47</f>
-        <v>0.72769953051643188</v>
+        <f>B41/809</f>
+        <v>0.38318912237330038</v>
       </c>
       <c r="C51" s="1">
-        <f>B14/B47</f>
-        <v>0.27230046948356806</v>
+        <f>B14/846</f>
+        <v>0.13711583924349882</v>
       </c>
       <c r="D51">
         <f>B47</f>
         <v>426</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f>310/809*100</f>
+        <v>38.318912237330039</v>
+      </c>
+      <c r="H51">
+        <f>116/846*100</f>
+        <v>13.711583924349883</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="1">
-        <f>D41/D47</f>
-        <v>0.92660550458715596</v>
+        <f>D41/809</f>
+        <v>0.12484548825710753</v>
       </c>
       <c r="C52" s="1">
-        <f>D14/D47</f>
-        <v>7.3394495412844041E-2</v>
+        <f>D14/846</f>
+        <v>9.4562647754137114E-3</v>
       </c>
       <c r="D52">
         <f>D47</f>
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="1">
-        <f>F41/F47</f>
-        <v>0.13653136531365315</v>
+        <f>F41/809</f>
+        <v>4.573547589616811E-2</v>
       </c>
       <c r="C53" s="1">
-        <f>F14/F47</f>
-        <v>0.86346863468634683</v>
+        <f>F14/846</f>
+        <v>0.27659574468085107</v>
       </c>
       <c r="D53">
         <f>F47</f>
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="1">
-        <f>H41/H47</f>
-        <v>0.58002936857562404</v>
+        <f>H41/809</f>
+        <v>0.97651421508034608</v>
       </c>
       <c r="C54" s="1">
-        <f>H14/H47</f>
-        <v>0.41997063142437591</v>
+        <f>H14/846</f>
+        <v>0.67612293144208035</v>
       </c>
       <c r="D54">
         <f>H47</f>
         <v>1362</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="1">
-        <f>J41/J47</f>
-        <v>0.24778761061946902</v>
+        <f>J41/809</f>
+        <v>0.17305315203955501</v>
       </c>
       <c r="C55" s="1">
-        <f>J14/J47</f>
-        <v>0.75221238938053092</v>
+        <f>J14/846</f>
+        <v>0.50236406619385343</v>
       </c>
       <c r="D55">
         <f>J47</f>
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="1">
-        <f>L41/L47</f>
-        <v>0.5714285714285714</v>
+        <f>L41/809</f>
+        <v>5.4388133498145856E-2</v>
       </c>
       <c r="C56" s="1">
-        <f>L14/L47</f>
-        <v>0.42857142857142855</v>
+        <f>L14/846</f>
+        <v>3.9007092198581561E-2</v>
       </c>
       <c r="D56">
         <f>L47</f>
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="1">
-        <f>N41/N47</f>
-        <v>0.1875</v>
+        <f>N41/809</f>
+        <v>1.1124845488257108E-2</v>
       </c>
       <c r="C57" s="1">
-        <f>N14/N47</f>
-        <v>0.8125</v>
+        <f>N14/846</f>
+        <v>4.6099290780141841E-2</v>
       </c>
       <c r="D57">
         <f>N47</f>
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="1">
-        <f>P41/P47</f>
-        <v>0.67088607594936711</v>
+        <f>P41/809</f>
+        <v>0.13102595797280595</v>
       </c>
       <c r="C58" s="1">
-        <f>P14/P47</f>
-        <v>0.32911392405063289</v>
+        <f>P14/846</f>
+        <v>6.1465721040189124E-2</v>
       </c>
       <c r="D58">
         <f>P47</f>
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="1">
-        <f>R41/R47</f>
-        <v>0.75</v>
+        <f>R41/809</f>
+        <v>3.7082818294190356E-2</v>
       </c>
       <c r="C59" s="1">
-        <f>R14/R47</f>
-        <v>0.25</v>
+        <f>R14/846</f>
+        <v>1.1820330969267139E-2</v>
       </c>
       <c r="D59">
         <f>R47</f>
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="1">
-        <f>T41/T47</f>
-        <v>0.30046948356807512</v>
+        <f>T41/809</f>
+        <v>7.9110012360939425E-2</v>
       </c>
       <c r="C60" s="1">
-        <f>T14/T47</f>
-        <v>0.69953051643192488</v>
+        <f>T14/846</f>
+        <v>0.17612293144208038</v>
       </c>
       <c r="D60">
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D62">
         <f>SUM(D51:D60)</f>
         <v>3269</v>
@@ -5156,10 +6206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F579C-0194-4588-8A5D-DB76AF02B73E}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5383,6 +6433,242 @@
       </c>
       <c r="G11" s="1">
         <v>0.27230046948356806</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1">
+        <f>B27/809</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="e">
+        <f>#REF!/846</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1">
+        <f>D27/809</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="e">
+        <f>#REF!/846</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38">
+        <v>0.38318912237330038</v>
+      </c>
+      <c r="G38">
+        <v>0.13711583924349882</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1">
+        <f>F27/809</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="e">
+        <f>#REF!/846</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39">
+        <v>0.12484548825710753</v>
+      </c>
+      <c r="G39">
+        <v>9.4562647754137114E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="1">
+        <f>H27/809</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="e">
+        <f>#REF!/846</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40">
+        <v>4.573547589616811E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.27659574468085107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="1">
+        <f>J27/809</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="e">
+        <f>#REF!/846</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41">
+        <v>0.97651421508034608</v>
+      </c>
+      <c r="G41">
+        <v>0.67612293144208035</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1">
+        <f>L27/809</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="e">
+        <f>#REF!/846</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42">
+        <v>0.17305315203955501</v>
+      </c>
+      <c r="G42">
+        <v>0.50236406619385343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1">
+        <f>N27/809</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="e">
+        <f>#REF!/846</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43">
+        <v>5.4388133498145856E-2</v>
+      </c>
+      <c r="G43">
+        <v>3.9007092198581561E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1">
+        <f>P27/809</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="e">
+        <f>#REF!/846</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44">
+        <v>1.1124845488257108E-2</v>
+      </c>
+      <c r="G44">
+        <v>4.6099290780141841E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="1">
+        <f>R27/809</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="e">
+        <f>#REF!/846</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45">
+        <v>0.13102595797280595</v>
+      </c>
+      <c r="G45">
+        <v>6.1465721040189124E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="1">
+        <f>T27/809</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="e">
+        <f>#REF!/846</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46">
+        <v>3.7082818294190356E-2</v>
+      </c>
+      <c r="G46">
+        <v>1.1820330969267139E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47">
+        <v>7.9110012360939425E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.17612293144208038</v>
       </c>
     </row>
   </sheetData>
@@ -5399,7 +6685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1AFE37-7B2A-40A9-9241-F777EBAF7058}">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K29" workbookViewId="0">
       <selection activeCell="K2" activeCellId="1" sqref="AH2 K2"/>
     </sheetView>
   </sheetViews>
@@ -9491,7 +10777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8193B62B-ACAC-4C48-A747-59BCEC3DA11C}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
